--- a/docs/PTA2_DDC_80/PTA2_DDC_80_15.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_15.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731778567.2463102</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731778567.911433</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778567.2463102.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778567.911433.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.22</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.77</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5499999999999545</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731778567.9499059</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731778570.1025436</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778567.9499059.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778570.1025436.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.85</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.53</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.32000000000005</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731778570.3906705</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731778572.7908452</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778570.3906705.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778572.7908452.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278.23</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>271.74</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-6.490000000000009</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-2.33</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731778573.925408</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731778574.2153947</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778573.925408.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778574.2153947.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>276.68</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.34</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6599999999999682</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731778575.2430773</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731778576.673909</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778575.2430773.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778576.673909.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>277.75</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.34</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.410000000000025</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731778579.6384616</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731778579.8842094</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778579.6384616.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731778579.8842094.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.28</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.42</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1400000000000432</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731778580.732232</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731778581.3675294</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778580.732232.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778581.3675294.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278.22</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.77</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5499999999999545</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731778581.4064279</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731778583.4608092</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778581.4064279.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778583.4608092.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278.85</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.53</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.32000000000005</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731778583.7231073</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731778585.9203424</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778583.7231073.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778585.9203424.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278.23</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>271.74</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-6.490000000000009</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-2.33</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731778586.7950003</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731778587.027352</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778586.7950003.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778587.027352.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>276.68</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>277.34</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.6599999999999682</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731778587.8773746</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731778588.9405296</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778587.8773746.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778588.9405296.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>277.75</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>277.34</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.410000000000025</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731778591.1456575</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731778591.357092</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778591.1456575.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778591.357092.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>277.28</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>277.42</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1400000000000432</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731778592.653676</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731778593.397815</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778592.653676.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778593.397815.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.36</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>279.4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.039999999999964</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731778593.6369467</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731778596.1239917</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778593.6369467.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778596.1239917.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>279.87</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>279.36</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.5099999999999909</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731778596.4849536</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731778599.496836</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778596.4849536.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778599.496836.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>279</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>278.43</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.5699999999999932</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731778600.595075</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731778600.9467933</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778600.595075.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778600.9467933.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>277.55</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>277.92</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731778601.9269156</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731778602.7829204</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778601.9269156.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731778602.7829204.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>278.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>277.82</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.5799999999999841</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1423,95 +1541,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731778606.2659829</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731778606.2659829.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731778606.2659829.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>277.48</v>
       </c>
-      <c r="J20" t="n">
-        <v>277.48</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>277.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.1500000000000341</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731778608.6456053</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731778609.2557764</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778608.6456053.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778609.2557764.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>129.46</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>129.14</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3200000000000216</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1519,51 +1649,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731778610.4053686</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731778610.6878004</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778610.4053686.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778610.6878004.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>129.68</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>129.23</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4500000000000171</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1571,51 +1707,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731778611.301548</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731778614.063459</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778611.301548.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778614.063459.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>129.11</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>128.67</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.4400000000000261</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -1623,51 +1765,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731778615.8076787</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731778616.5697234</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778615.8076787.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778616.5697234.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>128.14</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>128.28</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1675,51 +1823,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731778617.0478916</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731778617.6803036</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778617.0478916.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731778617.6803036.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>127.85</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>128.1</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.25</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1727,95 +1881,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731778619.68273</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731778619.68273.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731778619.68273.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>127.44</v>
       </c>
-      <c r="J26" t="n">
-        <v>127.44</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>127.34</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731778622.3527286</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731778622.4999793</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778622.3527286.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778622.4999793.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>6360.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>6377.5</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>17</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731778622.9436464</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731778625.4106126</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778622.9436464.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778625.4106126.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>6399</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>6389.5</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>9.5</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731778625.7394443</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731778630.5377934</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778625.7394443.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778630.5377934.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>6375.5</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>6367.5</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-8</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731778631.2626717</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731778631.5749989</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778631.2626717.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778631.5749989.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>6353.5</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>6356</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>2.5</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731778632.0412679</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731778633.9243827</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778632.0412679.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731778633.9243827.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6340.5</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6352</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>11.5</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2031,95 +2221,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731778635.8065212</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731778635.8065212.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731778635.8065212.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6338.5</v>
       </c>
-      <c r="J32" t="n">
-        <v>6338.5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>6343.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731778638.1855628</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731778640.7690356</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778638.1855628.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778640.7690356.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>498</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>497.05</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.9499999999999886</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731778640.9688258</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731778643.8170826</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778640.9688258.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778643.8170826.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>495.7</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>495.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731778644.1028824</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731778645.2779717</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778644.1028824.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778645.2779717.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>494.75</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>495.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731778645.3818758</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731778645.8411207</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778645.3818758.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778645.8411207.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>495.95</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>495.25</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.6999999999999886</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731778646.4988096</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731778646.7140853</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778646.4988096.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778646.7140853.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>494.65</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>495.55</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.9000000000000341</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2335,51 +2561,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731778646.8681946</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731778647.101679</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778646.8681946.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731778647.101679.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>496.3</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>495.45</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.8500000000000227</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2387,95 +2619,107 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731778651.206358</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731778651.206358.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731778651.206358.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>494.9</v>
       </c>
-      <c r="J39" t="n">
-        <v>494.9</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.4000000000000341</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731778651.8979268</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731778652.0900004</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778651.8979268.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778652.0900004.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>221.82</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>222.59</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.7700000000000102</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731778652.7435935</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731778653.1175475</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778652.7435935.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778653.1175475.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>221.82</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>222.38</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731778653.4117224</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731778656.435811</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778653.4117224.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778656.435811.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>222.84</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>223.42</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.5799999999999841</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731778658.0556765</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731778658.6607864</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778658.0556765.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778658.6607864.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>223.43</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>223.66</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.2299999999999898</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731778658.7302463</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731778658.9583328</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778658.7302463.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778658.9583328.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>223.99</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>223.62</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731778659.2194116</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731778661.1131432</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778659.2194116.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778661.1131432.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>224.1</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>223.83</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.2699999999999818</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731778662.3572829</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731778665.0499933</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778662.3572829.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731778665.0499933.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>224.39</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>224.64</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2795,95 +3075,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731778665.178049</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731778665.178049.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731778665.178049.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>224.21</v>
       </c>
-      <c r="J47" t="n">
-        <v>224.21</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>224.45</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.2399999999999807</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731778666.4209056</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731778666.8744342</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778666.4209056.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778666.8744342.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1027.2</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1031</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731778667.3952596</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731778670.3304753</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778667.3952596.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778670.3304753.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1036.6</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1037.8</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731778671.7986357</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731778672.6078923</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778671.7986357.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778672.6078923.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1036.8</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1038.8</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>2</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731778672.7728646</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731778672.9383357</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778672.7728646.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778672.9383357.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1036.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1039.2</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731778674.6085026</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731778674.721393</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778674.6085026.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778674.721393.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1038.2</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1037.4</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3099,51 +3415,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731778675.0477495</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731778677.717313</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778675.0477495.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778677.717313.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1034.6</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1037.2</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>2.600000000000136</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3151,51 +3473,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731778678.0622408</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731778678.8615377</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778678.0622408.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731778678.8615377.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1038.4</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1035.2</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>3.200000000000045</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3203,95 +3531,107 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731778680.0898175</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731778680.0898175.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731778680.0898175.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>1032.6</v>
       </c>
-      <c r="J55" t="n">
-        <v>1032.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1032.4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.1999999999998181</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731778682.2937422</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731778682.982318</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778682.2937422.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778682.982318.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>11.994</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>11.973</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.02099999999999902</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3299,51 +3639,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731778685.4314713</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731778685.5826848</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778685.4314713.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778685.5826848.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>12.007</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>11.987</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3351,51 +3697,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731778686.2669885</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731778690.2837098</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778686.2669885.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778690.2837098.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>12.021</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>12.061</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -3403,51 +3755,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731778691.5634985</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731778693.7661319</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778691.5634985.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CNY1731778693.7661319.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>12.041</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>12.043</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.001999999999998892</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3455,51 +3813,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731778696.9305675</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731778697.5845478</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778696.9305675.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778697.5845478.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>124.76</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>125.34</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.5799999999999983</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3507,51 +3871,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731778697.6266341</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731778700.3214915</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778697.6266341.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778700.3214915.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>125.86</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>125.56</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -3559,51 +3929,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731778700.447602</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731778704.4550736</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778700.447602.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778704.4550736.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>125.26</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>125.46</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3611,51 +3987,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731778704.5031185</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731778704.683875</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778704.5031185.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778704.683875.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>125.6</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>125.26</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.3399999999999892</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3663,51 +4045,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731778705.3268347</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731778705.7392645</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778705.3268347.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778705.7392645.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>125</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>125.36</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3715,51 +4103,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731778706.413241</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731778709.7723682</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778706.413241.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731778709.7723682.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>125.02</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>125.04</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -3767,51 +4161,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731778710.8138158</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731778711.3213778</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778710.8138158.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778711.3213778.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>162.8</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>162.98</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3819,51 +4219,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731778711.6289797</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731778713.952142</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778711.6289797.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778713.952142.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>163.6</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>164.08</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.4800000000000182</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -3871,51 +4277,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731778714.2343123</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731778716.5773387</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778714.2343123.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731778716.5773387.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>163.54</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>163.98</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -3923,95 +4335,107 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731778719.261702</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731778719.261702.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731778719.261702.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>162.92</v>
       </c>
-      <c r="J69" t="n">
-        <v>162.92</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>161.8</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-1.119999999999976</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731778725.3258948</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731778727.7042036</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778725.3258948.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778727.7042036.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>49.845</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>49.935</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.09000000000000341</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -4019,51 +4443,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731778727.744522</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731778730.0596755</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778727.744522.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778730.0596755.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>49.865</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>49.765</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.1000000000000014</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -4071,51 +4501,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731778732.0488508</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731778732.5189254</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778732.0488508.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778732.5189254.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>49.895</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>49.715</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -4123,51 +4559,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731778732.885023</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731778733.260605</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778732.885023.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778733.260605.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>49.88</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>49.8</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.0800000000000054</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4175,51 +4617,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731778733.3078337</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731778736.3611662</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778733.3078337.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731778736.3611662.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>49.965</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>49.965</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4227,43 +4675,49 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731778737.1575482</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731778737.1575482.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731778737.1575482.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>49.96</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>49.96</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4271,51 +4725,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731778738.31198</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731778738.9943662</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778738.31198.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778738.9943662.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>1386.8</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>1389</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4323,51 +4783,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731778739.1537297</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731778739.6519256</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778739.1537297.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778739.6519256.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>1395</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>1395</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4375,51 +4841,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731778742.9037375</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731778743.878625</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778742.9037375.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778743.878625.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>1392.6</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>1395</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4427,51 +4899,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731778745.8291433</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731778747.2939484</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778745.8291433.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731778747.2939484.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>1397</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>1393.4</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4479,95 +4957,107 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731778750.0358906</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731778750.0358906.png</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731778750.0358906.png</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>1393.6</v>
       </c>
-      <c r="J80" t="n">
-        <v>1393.6</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1386.4</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-7.199999999999818</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731778752.777237</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731778753.213598</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778752.777237.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778753.213598.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>58.69</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>58.81</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4575,51 +5065,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731778754.2362998</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731778756.1140332</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778754.2362998.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778756.1140332.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>58.89</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>58.85</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4627,51 +5123,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731778756.2171159</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731778759.1326294</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778756.2171159.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778759.1326294.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>58.77</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>58.77</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4679,51 +5181,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731778759.6404083</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731778765.4374452</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778759.6404083.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731778765.4374452.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>58.79</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>58.95</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.1600000000000037</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -4731,51 +5239,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731778767.941243</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731778768.5575683</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778767.941243.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778768.5575683.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>99.20999999999999</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>99.45</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.2400000000000091</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4783,51 +5297,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731778770.0556731</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731778771.2805486</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778770.0556731.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778771.2805486.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>99.81</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>99.84999999999999</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4835,51 +5355,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731778771.6960473</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731778774.1125584</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778771.6960473.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778774.1125584.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>99.28</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>99.56999999999999</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.289999999999992</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4887,51 +5413,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731778775.0723364</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731778776.1538332</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778775.0723364.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778776.1538332.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>99.14</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>99.5</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -4939,51 +5471,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731778776.7343833</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731778776.8440423</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778776.7343833.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778776.8440423.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>99.56999999999999</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>99.41</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4991,51 +5529,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731778777.496808</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731778777.8224962</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778777.496808.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731778777.8224962.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>99.67</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>99.45999999999999</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -5043,51 +5587,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731778786.0989926</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731778789.7550073</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778786.0989926.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SELG1731778789.7550073.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>55.6</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>55.55</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-0.05000000000000426</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -5095,51 +5645,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731778794.4526207</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731778794.7199101</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778794.4526207.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778794.7199101.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>155.2</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>156</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.8000000000000114</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -5147,51 +5703,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731778795.0437205</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731778797.4290936</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778795.0437205.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778797.4290936.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>156.7</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>156.26</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -5199,51 +5761,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731778798.5015018</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731778803.4194996</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778798.5015018.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731778803.4194996.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>155.54</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>155.26</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -5251,95 +5819,107 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731778804.4036152</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731778804.4036152.png</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731778804.4036152.png</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>154.6</v>
       </c>
-      <c r="J95" t="n">
-        <v>154.6</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>154.12</v>
+      </c>
+      <c r="M95" t="n">
+        <v>-0.4799999999999898</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731778808.2831337</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731778810.218929</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731778808.2831337.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731778810.218929.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>0.3067</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>0.3043</v>
       </c>
-      <c r="K96" t="n">
-        <v>0.002400000000000013</v>
-      </c>
-      <c r="L96" t="n">
+      <c r="M96" t="n">
+        <v>0.002399999999999958</v>
+      </c>
+      <c r="N96" t="n">
         <v>0.7799999999999999</v>
       </c>
     </row>
@@ -5347,51 +5927,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731778819.2913384</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731778820.314336</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778819.2913384.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778820.314336.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>19.91</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>19.979</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.06899999999999906</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -5399,51 +5985,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731778821.4567158</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731778823.1562257</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778821.4567158.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778823.1562257.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>20.018</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>19.973</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.04500000000000171</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -5451,51 +6043,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731778823.9349034</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731778827.8413815</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778823.9349034.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778827.8413815.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>19.921</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>19.937</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.01600000000000179</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5503,51 +6101,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731778828.8190172</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731778829.1115866</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778828.8190172.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731778829.1115866.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>19.854</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>19.901</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.0470000000000006</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -5555,95 +6159,107 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731778833.598063</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731778833.598063.png</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731778833.598063.png</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>19.811</v>
       </c>
-      <c r="J101" t="n">
-        <v>19.811</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>19.826</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.01500000000000057</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731778834.9577155</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731778835.1708512</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778834.9577155.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778835.1708512.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>679</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>681.5</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>2.5</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -5651,51 +6267,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731778836.3389316</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731778837.7427933</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778836.3389316.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778837.7427933.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>683</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>681.15</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>1.850000000000023</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -5703,51 +6325,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731778837.8785157</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731778838.2138412</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778837.8785157.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778838.2138412.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>680</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>679.8</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -5755,51 +6383,57 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731778841.0511165</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731778842.390848</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778841.0511165.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731778842.390848.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>676.85</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>677.3</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.4499999999999318</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -5807,95 +6441,107 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731778843.6315458</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731778843.6315458.png</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731778843.6315458.png</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>677.75</v>
       </c>
-      <c r="J106" t="n">
-        <v>677.75</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>679.3</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-1.549999999999955</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731778847.3687308</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731778847.8516524</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778847.3687308.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778847.8516524.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>150.4</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>151.01</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.6099999999999852</v>
       </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -5903,51 +6549,57 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731778848.1918137</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731778848.92619</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778848.1918137.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778848.92619.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>152.2</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>151.11</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>1.089999999999975</v>
       </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -5955,51 +6607,57 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731778850.0143769</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731778850.722787</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778850.0143769.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778850.722787.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>152.36</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>151.4</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.960000000000008</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -6007,51 +6665,57 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731778853.29767</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731778853.5143101</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778853.29767.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778853.5143101.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>150.72</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>151.29</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.5699999999999932</v>
       </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -6059,51 +6723,57 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731778855.7606695</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731778856.0187075</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778855.7606695.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778856.0187075.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>151.47</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>151.01</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.460000000000008</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -6111,51 +6781,57 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731778857.0628192</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731778859.223486</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778857.0628192.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731778859.223486.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>150.75</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>150.86</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.1100000000000136</v>
       </c>
-      <c r="L112" t="n">
+      <c r="N112" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -6217,19 +6893,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.480000000000018</v>
+        <v>-2.630000000000052</v>
       </c>
       <c r="C2" t="n">
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2066666666666682</v>
+        <v>-0.219166666666671</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.89</v>
+        <v>-0.9400000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="3">
@@ -6239,16 +6915,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.60000000000014</v>
+        <v>13.40000000000032</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.700000000000017</v>
+        <v>1.67500000000004</v>
       </c>
       <c r="E3" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="F3" t="n">
         <v>0.16</v>
@@ -6261,19 +6937,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.370000000000005</v>
+        <v>1.609999999999985</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1712500000000006</v>
+        <v>0.2012499999999982</v>
       </c>
       <c r="E4" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -6283,19 +6959,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.950000000000045</v>
+        <v>4.35000000000008</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5642857142857208</v>
+        <v>0.6214285714285828</v>
       </c>
       <c r="E5" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="F5" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -6349,19 +7025,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7200000000000273</v>
+        <v>0.620000000000033</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1200000000000045</v>
+        <v>0.1033333333333388</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -6393,19 +7069,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.5</v>
+        <v>37.5</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>5.416666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">
@@ -6459,19 +7135,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.599999999999909</v>
+        <v>3.049999999999955</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9199999999999818</v>
+        <v>0.6099999999999909</v>
       </c>
       <c r="E13" t="n">
-        <v>0.68</v>
+        <v>0.45</v>
       </c>
       <c r="F13" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14">
@@ -6481,19 +7157,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1770000000000032</v>
+        <v>0.1920000000000037</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03540000000000063</v>
+        <v>0.03840000000000075</v>
       </c>
       <c r="E14" t="n">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F14" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="15">
@@ -6503,19 +7179,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.200000000000045</v>
+        <v>1.000000000000227</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>1.640000000000009</v>
+        <v>0.2000000000000455</v>
       </c>
       <c r="E15" t="n">
-        <v>0.59</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="F15" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16">
@@ -6525,19 +7201,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1399999999999579</v>
+        <v>-0.9800000000000182</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03499999999998948</v>
+        <v>-0.2450000000000045</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09000000000000002</v>
+        <v>-0.5999999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="17">
@@ -6591,19 +7267,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.960000000000008</v>
+        <v>0.4800000000000182</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.240000000000002</v>
+        <v>0.1200000000000045</v>
       </c>
       <c r="E19" t="n">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="F19" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20">
@@ -6613,13 +7289,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002400000000000013</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002400000000000013</v>
+        <v>0.002399999999999958</v>
       </c>
       <c r="E20" t="n">
         <v>0.7799999999999999</v>
